--- a/早签少量数据.xlsx
+++ b/早签少量数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView windowWidth="19635" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="考勤异常表" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>考勤异常表</t>
   </si>
@@ -55,22 +55,25 @@
     <t>备注</t>
   </si>
   <si>
+    <t>19510112</t>
+  </si>
+  <si>
+    <t>胡琼岩</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>2021/3/9</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>旷工</t>
+  </si>
+  <si>
     <t>17211108</t>
-  </si>
-  <si>
-    <t>胡琼岩</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>2021/3/9</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>旷工</t>
   </si>
   <si>
     <t>2021/3/10</t>
@@ -84,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -140,6 +143,126 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -152,103 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -256,29 +282,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -295,25 +298,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,151 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,11 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,9 +561,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,32 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +620,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -628,151 +631,151 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2">
@@ -1137,7 +1140,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -1251,7 +1254,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -1283,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>16</v>
